--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\heutagogy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5194E4C7-9E91-4127-BDA1-9CB2205D14DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8196D-A02C-4E16-8F7A-7C2A8D9CC6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5BDD1505-3FA6-4BB4-8732-2F03FD68A087}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{5BDD1505-3FA6-4BB4-8732-2F03FD68A087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Roll No</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>teacher4@gmail.com</t>
+  </si>
+  <si>
+    <t>S1234</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A64DF-A2CE-40A7-8E42-48CDA6533B75}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,8 +483,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1234</v>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -494,8 +497,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1234</v>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -508,8 +511,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1234</v>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -522,8 +525,8 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>1234</v>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E5E7E-840D-4DB8-8CA7-1E10FEA9205B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
